--- a/data/processed/rhyolitic_glasses/kraw_summaries_A870.xlsx
+++ b/data/processed/rhyolitic_glasses/kraw_summaries_A870.xlsx
@@ -495,7 +495,7 @@
         <v>4.07</v>
       </c>
       <c r="E2">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="F2">
         <v>5.79</v>
@@ -507,19 +507,19 @@
         <v>6.96</v>
       </c>
       <c r="I2">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="J2">
         <v>5.78</v>
       </c>
       <c r="K2">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="L2">
         <v>6.96</v>
       </c>
       <c r="M2">
-        <v>24.23</v>
+        <v>4.52</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -539,7 +539,7 @@
         <v>3.8</v>
       </c>
       <c r="E3">
-        <v>24.66</v>
+        <v>6.35</v>
       </c>
       <c r="F3">
         <v>5.48</v>
@@ -548,22 +548,22 @@
         <v>5.22</v>
       </c>
       <c r="H3">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
-        <v>24.66</v>
+        <v>6.35</v>
       </c>
       <c r="J3">
-        <v>5.47</v>
+        <v>5.48</v>
       </c>
       <c r="K3">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="L3">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="M3">
-        <v>24.21</v>
+        <v>4.28</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -583,7 +583,7 @@
         <v>3.66</v>
       </c>
       <c r="E4">
-        <v>24.7</v>
+        <v>6.51</v>
       </c>
       <c r="F4">
         <v>5.32</v>
@@ -592,22 +592,22 @@
         <v>5.41</v>
       </c>
       <c r="H4">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>24.7</v>
+        <v>6.51</v>
       </c>
       <c r="J4">
-        <v>5.33</v>
+        <v>5.31</v>
       </c>
       <c r="K4">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
       <c r="L4">
-        <v>6.42</v>
+        <v>6.4</v>
       </c>
       <c r="M4">
-        <v>24.25</v>
+        <v>4.63</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -627,7 +627,7 @@
         <v>3.42</v>
       </c>
       <c r="E5">
-        <v>24.76</v>
+        <v>6.73</v>
       </c>
       <c r="F5">
         <v>5.07</v>
@@ -636,22 +636,22 @@
         <v>5.68</v>
       </c>
       <c r="H5">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="I5">
-        <v>24.76</v>
+        <v>6.73</v>
       </c>
       <c r="J5">
-        <v>5.06</v>
+        <v>5.08</v>
       </c>
       <c r="K5">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="L5">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="M5">
-        <v>24.23</v>
+        <v>4.62</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -671,7 +671,7 @@
         <v>3.82</v>
       </c>
       <c r="E6">
-        <v>24.64</v>
+        <v>6.3</v>
       </c>
       <c r="F6">
         <v>5.44</v>
@@ -680,22 +680,22 @@
         <v>5.16</v>
       </c>
       <c r="H6">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="I6">
-        <v>24.64</v>
+        <v>6.3</v>
       </c>
       <c r="J6">
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="K6">
         <v>2.48</v>
       </c>
       <c r="L6">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="M6">
-        <v>24.22</v>
+        <v>4.38</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -715,7 +715,7 @@
         <v>3.98</v>
       </c>
       <c r="E7">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="F7">
         <v>5.54</v>
@@ -727,19 +727,19 @@
         <v>6.66</v>
       </c>
       <c r="I7">
-        <v>24.6</v>
+        <v>6.14</v>
       </c>
       <c r="J7">
         <v>5.53</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="L7">
         <v>6.66</v>
       </c>
       <c r="M7">
-        <v>24.24</v>
+        <v>4.27</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -759,7 +759,7 @@
         <v>4.08</v>
       </c>
       <c r="E8">
-        <v>24.58</v>
+        <v>6.07</v>
       </c>
       <c r="F8">
         <v>5.58</v>
@@ -768,22 +768,22 @@
         <v>4.87</v>
       </c>
       <c r="H8">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="I8">
-        <v>24.58</v>
+        <v>6.07</v>
       </c>
       <c r="J8">
-        <v>5.6</v>
+        <v>5.59</v>
       </c>
       <c r="K8">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="L8">
-        <v>6.75</v>
+        <v>6.74</v>
       </c>
       <c r="M8">
-        <v>24.19</v>
+        <v>4.47</v>
       </c>
       <c r="N8" t="s">
         <v>19</v>
@@ -803,7 +803,7 @@
         <v>4.07</v>
       </c>
       <c r="E9">
-        <v>24.58</v>
+        <v>6.05</v>
       </c>
       <c r="F9">
         <v>5.62</v>
@@ -812,22 +812,22 @@
         <v>4.85</v>
       </c>
       <c r="H9">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="I9">
-        <v>24.58</v>
+        <v>6.05</v>
       </c>
       <c r="J9">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="K9">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="L9">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="M9">
-        <v>24.21</v>
+        <v>4.36</v>
       </c>
       <c r="N9" t="s">
         <v>20</v>
